--- a/DataCollectionBot/data/parameters.xlsx
+++ b/DataCollectionBot/data/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DataCollectionBot\DataCollectionBot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C0D1B3-51A2-4A49-A709-C4300EA207D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41F3FDB-28F9-48F5-972C-B45C1F0430C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
     <t>Качество сна</t>
   </si>
@@ -117,18 +117,12 @@
     <t>Да</t>
   </si>
   <si>
-    <t>Пиковая скорость кашля(ПСК)</t>
-  </si>
-  <si>
     <t>160-400</t>
   </si>
   <si>
     <t xml:space="preserve">После окончания программы посмотрите на экран.  </t>
   </si>
   <si>
-    <t>Объем инсуффляции</t>
-  </si>
-  <si>
     <t>НИВЛ+Откашливатель</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Пульс(ЧСС) через час после откашливателя</t>
   </si>
   <si>
-    <t>Откашливатель в течение дня</t>
-  </si>
-  <si>
     <t>Утомляемость в течение дня</t>
   </si>
   <si>
@@ -199,18 +190,50 @@
   </si>
   <si>
     <t>1000-1100</t>
+  </si>
+  <si>
+    <t>Пиковая скорость кашля(ПСК) (Кашель)</t>
+  </si>
+  <si>
+    <t>Объем инсуффляции (Кашель)</t>
+  </si>
+  <si>
+    <t>160-401</t>
+  </si>
+  <si>
+    <t>1000-1101</t>
+  </si>
+  <si>
+    <t>Пиковая скорость кашля(ПСК) (Терапия)</t>
+  </si>
+  <si>
+    <t>Объем инсуффляции (Терапия)</t>
+  </si>
+  <si>
+    <t>Откашливатель в течение дня (Кашель)</t>
+  </si>
+  <si>
+    <t>Откашливатель в течение дня (Терапия)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,6 +251,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,17 +280,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -542,15 +572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.36328125" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="46.36328125" customWidth="1"/>
     <col min="3" max="3" width="22.81640625" customWidth="1"/>
     <col min="4" max="4" width="48.36328125" customWidth="1"/>
@@ -560,22 +590,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -634,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -648,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -730,7 +760,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -743,144 +773,144 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
+      <c r="A15" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
+      <c r="A19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
+      <c r="A20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -888,76 +918,128 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
